--- a/metrics/GCN/model_metric_results_GCN_sentences.xlsx
+++ b/metrics/GCN/model_metric_results_GCN_sentences.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5592519377091932</v>
+        <v>0.8955505840392736</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7091352670100299</v>
+        <v>0.9302737520128824</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7</v>
+        <v>0.9295774647887324</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6953645974518841</v>
+        <v>0.9297067428726949</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7</v>
+        <v>0.9295774647887324</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.9431818181818182</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7101608187134502</v>
+        <v>0.9232456140350878</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.9431818181818182</v>
       </c>
     </row>
   </sheetData>
